--- a/Wknd_Sched_Builder/sep24_Assn.xlsx
+++ b/Wknd_Sched_Builder/sep24_Assn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloned_Repositories\HFS_Gradio_Projects\Wknd_Sched_Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729FA395-07E7-4592-A9B1-55B8210F9B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB8358-52F2-414E-9D79-A21CFFD47CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="12432" windowHeight="11004" tabRatio="707" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31065" yWindow="2265" windowWidth="21600" windowHeight="11235" tabRatio="707" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Slots" sheetId="4" r:id="rId1"/>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96EE401-FD5B-4675-8E2B-71951E8EAC3D}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>139</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>139</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -6244,7 +6244,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
